--- a/teaching/traditional_assets/database/data/jamaica/jamaica_brokerage_investment_banking.xlsx
+++ b/teaching/traditional_assets/database/data/jamaica/jamaica_brokerage_investment_banking.xlsx
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.32</v>
+        <v>0.259</v>
       </c>
       <c r="E2">
-        <v>0.5245</v>
+        <v>0.4425</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -603,103 +603,97 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-0.00439348185461173</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>-0.003196233007671314</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>46.40000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="L2">
-        <v>0.2874845105328377</v>
+        <v>0.4156813939016802</v>
       </c>
       <c r="M2">
-        <v>7.31</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="N2">
-        <v>0.006486246672582077</v>
+        <v>0.008226037195994277</v>
       </c>
       <c r="O2">
-        <v>0.1575431034482759</v>
+        <v>0.1377245508982036</v>
       </c>
       <c r="P2">
-        <v>5.94</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Q2">
-        <v>0.005270629991126886</v>
+        <v>0.008226037195994277</v>
       </c>
       <c r="R2">
-        <v>0.1280172413793103</v>
+        <v>0.1377245508982036</v>
       </c>
       <c r="S2">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.1874145006839945</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>302.37</v>
+        <v>384</v>
       </c>
       <c r="V2">
-        <v>0.2682963620230701</v>
+        <v>0.3433476394849785</v>
       </c>
       <c r="W2">
-        <v>0.3652513266053912</v>
+        <v>0.1886611580403794</v>
       </c>
       <c r="X2">
-        <v>0.121247782296256</v>
+        <v>0.1204369700204922</v>
       </c>
       <c r="Y2">
-        <v>0.2440035443091352</v>
+        <v>0.06822418801988722</v>
       </c>
       <c r="Z2">
-        <v>0.08880058763581311</v>
+        <v>0.07428191071379045</v>
       </c>
       <c r="AA2">
-        <v>-0.0001588285207860004</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.08308473833874676</v>
+        <v>0.07260230968913881</v>
       </c>
       <c r="AC2">
-        <v>-0.08324356685953276</v>
+        <v>-0.07260230968913881</v>
       </c>
       <c r="AD2">
-        <v>2084.6</v>
+        <v>2276.9</v>
       </c>
       <c r="AE2">
-        <v>11.94553985667167</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>2096.545539856672</v>
+        <v>2276.9</v>
       </c>
       <c r="AG2">
-        <v>1794.175539856672</v>
+        <v>1892.9</v>
       </c>
       <c r="AH2">
-        <v>0.6503849608868533</v>
+        <v>0.67060348128295</v>
       </c>
       <c r="AI2">
-        <v>0.8429863893756829</v>
+        <v>0.8024882811123251</v>
       </c>
       <c r="AJ2">
-        <v>0.6141964135249138</v>
+        <v>0.628598943977684</v>
       </c>
       <c r="AK2">
-        <v>0.8212549218976383</v>
+        <v>0.7715729833285778</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>1240.833333333333</v>
-      </c>
-      <c r="AP2">
-        <v>1067.961630867067</v>
       </c>
     </row>
     <row r="3">
@@ -719,10 +713,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.487</v>
+        <v>0.394</v>
       </c>
       <c r="E3">
-        <v>0.915</v>
+        <v>0.627</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -737,85 +731,85 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.8</v>
+        <v>19.7</v>
       </c>
       <c r="L3">
-        <v>0.4539007092198582</v>
+        <v>0.652317880794702</v>
       </c>
       <c r="M3">
-        <v>1.37</v>
+        <v>6.25</v>
       </c>
       <c r="N3">
-        <v>0.003116469517743403</v>
+        <v>0.01022745868106693</v>
       </c>
       <c r="O3">
-        <v>0.10703125</v>
+        <v>0.317258883248731</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>6.25</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>0.01022745868106693</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0.317258883248731</v>
       </c>
       <c r="S3">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>5.87</v>
+        <v>37.6</v>
       </c>
       <c r="V3">
-        <v>0.01335304822565969</v>
+        <v>0.06152839142529865</v>
       </c>
       <c r="W3">
-        <v>0.5614035087719298</v>
+        <v>0.2086864406779661</v>
       </c>
       <c r="X3">
-        <v>0.07986235498123417</v>
+        <v>0.06418429986532175</v>
       </c>
       <c r="Y3">
-        <v>0.4815411537906956</v>
+        <v>0.1445021408126443</v>
       </c>
       <c r="Z3">
-        <v>0.2215065587934961</v>
+        <v>0.1093885830194147</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.07686056475116523</v>
+        <v>0.06265832702482663</v>
       </c>
       <c r="AC3">
-        <v>-0.07686056475116523</v>
+        <v>-0.06265832702482663</v>
       </c>
       <c r="AD3">
-        <v>180.1</v>
+        <v>252.1</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>180.1</v>
+        <v>252.1</v>
       </c>
       <c r="AG3">
-        <v>174.23</v>
+        <v>214.5</v>
       </c>
       <c r="AH3">
-        <v>0.2906244957237373</v>
+        <v>0.2920528266913809</v>
       </c>
       <c r="AI3">
-        <v>0.6386524822695036</v>
+        <v>0.5625976344565945</v>
       </c>
       <c r="AJ3">
-        <v>0.2838408028281446</v>
+        <v>0.2598110465116279</v>
       </c>
       <c r="AK3">
-        <v>0.630970919494441</v>
+        <v>0.5225334957369062</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -841,10 +835,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.153</v>
+        <v>0.124</v>
       </c>
       <c r="E4">
-        <v>0.134</v>
+        <v>0.258</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -853,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-0.005323633418425924</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>-0.004030918901810358</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>33.6</v>
+        <v>47.1</v>
       </c>
       <c r="L4">
-        <v>0.2522522522522523</v>
+        <v>0.3609195402298851</v>
       </c>
       <c r="M4">
-        <v>5.94</v>
+        <v>2.95</v>
       </c>
       <c r="N4">
-        <v>0.008641256910096014</v>
+        <v>0.005815099546619357</v>
       </c>
       <c r="O4">
-        <v>0.1767857142857143</v>
+        <v>0.06263269639065817</v>
       </c>
       <c r="P4">
-        <v>5.94</v>
+        <v>2.95</v>
       </c>
       <c r="Q4">
-        <v>0.008641256910096014</v>
+        <v>0.005815099546619357</v>
       </c>
       <c r="R4">
-        <v>0.1767857142857143</v>
+        <v>0.06263269639065817</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -889,67 +883,61 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>296.5</v>
+        <v>346.4</v>
       </c>
       <c r="V4">
-        <v>0.4313354669770149</v>
+        <v>0.6828306721860832</v>
       </c>
       <c r="W4">
-        <v>0.1690991444388526</v>
+        <v>0.1686358754027927</v>
       </c>
       <c r="X4">
-        <v>0.1626332096112778</v>
+        <v>0.1766896401756626</v>
       </c>
       <c r="Y4">
-        <v>0.006465934827574765</v>
+        <v>-0.008053764772869898</v>
       </c>
       <c r="Z4">
-        <v>0.07880511846302224</v>
+        <v>0.06914639961850262</v>
       </c>
       <c r="AA4">
-        <v>-0.0003176570415720007</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.08930891192632828</v>
+        <v>0.08254629235345097</v>
       </c>
       <c r="AC4">
-        <v>-0.08962656896790028</v>
+        <v>-0.08254629235345097</v>
       </c>
       <c r="AD4">
-        <v>1904.5</v>
+        <v>2024.8</v>
       </c>
       <c r="AE4">
-        <v>11.94553985667167</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>1916.445539856672</v>
+        <v>2024.8</v>
       </c>
       <c r="AG4">
-        <v>1619.945539856672</v>
+        <v>1678.4</v>
       </c>
       <c r="AH4">
-        <v>0.7360058461694169</v>
+        <v>0.7996524623830022</v>
       </c>
       <c r="AI4">
-        <v>0.8691183493567397</v>
+        <v>0.8474803281433116</v>
       </c>
       <c r="AJ4">
-        <v>0.7020818996869017</v>
+        <v>0.7679004437937502</v>
       </c>
       <c r="AK4">
-        <v>0.8487853740070183</v>
+        <v>0.8216173878989622</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>1133.630952380953</v>
-      </c>
-      <c r="AP4">
-        <v>964.2532975337332</v>
       </c>
     </row>
   </sheetData>
